--- a/Design/전투 기획서/일반 타워 리스트.xlsx
+++ b/Design/전투 기획서/일반 타워 리스트.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\전투 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAEADBD-F635-4FD8-A03F-E926EE965531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B15F85-56E2-4E6F-9471-807A2F675F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41E7A6B6-CC06-49A1-81A3-52EDE7F04A23}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{41E7A6B6-CC06-49A1-81A3-52EDE7F04A23}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="타워 예시" sheetId="1" r:id="rId1"/>
+    <sheet name="몬스터 예시" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="90">
   <si>
     <t>일반 타워 리스트</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -74,23 +76,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>공격 범위</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스플레쉬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>레벨</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>일반 타워</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -133,11 +123,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>장점 : 스플레쉬 적용과 매우 높은 공격력
-단점 : 공격 범위가 매우 짧음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>타워 사용처</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -256,6 +241,171 @@
   </si>
   <si>
     <t>Kind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예상 데미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스플래쉬 범위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스플래쉬 적용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마리 수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어 상수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해 흡수량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는 피해 비율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>적용 데미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몇방에 죽나?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장점 : 스플레쉬 적용과 매우 높은 공격력
+단점 : 사거리가 매우 짧음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유형1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유형2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackSpeed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Splash</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SplashRange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MooveSpeed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에픽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스페셜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타워 vs 몬스터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼마나 걸리나?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -263,7 +413,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="185" formatCode="0.00_ "/>
+    <numFmt numFmtId="186" formatCode="0.0_ "/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,16 +441,64 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -304,6 +506,208 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -313,7 +717,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -321,6 +725,99 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -638,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0BF918-22E2-49F3-83AF-AFC7028F97E7}">
-  <dimension ref="B2:Q14"/>
+  <dimension ref="B1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -651,25 +1148,38 @@
     <col min="7" max="7" width="46.375" customWidth="1"/>
     <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
     <col min="9" max="14" width="12" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="H1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="H2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
@@ -678,7 +1188,7 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
         <v>4</v>
@@ -693,22 +1203,28 @@
         <v>8</v>
       </c>
       <c r="L3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M3" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="N3" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>101</v>
       </c>
@@ -716,19 +1232,19 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -737,124 +1253,143 @@
         <v>0</v>
       </c>
       <c r="K4">
+        <v>0.7</v>
+      </c>
+      <c r="L4">
         <v>5</v>
       </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>13</v>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <f>POWER(N4,2)</f>
+        <v>1</v>
       </c>
       <c r="P4">
-        <f>SUM(H4:M4)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" ht="33" x14ac:dyDescent="0.3">
-      <c r="B5">
+        <f>H4*K4*3.14*POWER(N4,2)</f>
+        <v>10.99</v>
+      </c>
+      <c r="R4">
+        <f>SUM(H4:L4)</f>
+        <v>10.7</v>
+      </c>
+      <c r="V4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="8">
+        <f>ROUNDUP(H4*1.5,0)</f>
+        <v>8</v>
+      </c>
+      <c r="I5" s="8">
+        <f t="shared" ref="I5:L5" si="0">ROUNDUP(I4*1.5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <f>ROUNDUP(K4*1.5,1)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L5" s="8">
+        <f>ROUNDUP(L4*1.5,0)</f>
+        <v>8</v>
+      </c>
+      <c r="N5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" ht="33" x14ac:dyDescent="0.3">
+      <c r="B6">
         <v>201</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5">
-        <v>6</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>6</v>
-      </c>
-      <c r="P5">
-        <f t="shared" ref="P5:P14" si="0">SUM(H5:M5)</f>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="2">
-        <f>P5/P4-1</f>
-        <v>0.23076923076923084</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" ht="33" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>202</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="H6">
-        <v>3</v>
+        <f>ROUNDUP(H5*1.5,0)</f>
+        <v>12</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
+        <f>ROUNDUP(K5/1.5,1)</f>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="L6">
         <v>8</v>
       </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>4</v>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ref="O6:O17" si="1">POWER(N6,2)</f>
+        <v>1</v>
       </c>
       <c r="P6">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" ht="33" x14ac:dyDescent="0.3">
+        <f>H6*K6*3.14*POWER(N6,2)</f>
+        <v>30.143999999999998</v>
+      </c>
+      <c r="R6">
+        <f>SUM(H6:L6)</f>
+        <v>20.8</v>
+      </c>
+      <c r="S6" s="2">
+        <f>R6/R4-1</f>
+        <v>0.94392523364486003</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" ht="33" x14ac:dyDescent="0.3">
       <c r="B7">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7">
-        <v>5</v>
+        <f>ROUNDUP(H5/1.5,0)</f>
+        <v>6</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -863,266 +1398,1841 @@
         <v>0</v>
       </c>
       <c r="K7">
+        <f>ROUND(K5*1.5,1)</f>
+        <v>1.7</v>
+      </c>
+      <c r="L7">
+        <v>8</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <f>H7*K7*3.14*POWER(N7,2)</f>
+        <v>32.027999999999999</v>
+      </c>
+      <c r="R7">
+        <f>SUM(H7:L7)</f>
+        <v>15.7</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" ht="33" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>203</v>
+      </c>
+      <c r="C8">
         <v>4</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>8</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="0"/>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" ht="33" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>204</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8">
+        <f>H5*1.5</f>
+        <v>12</v>
+      </c>
+      <c r="K8">
+        <f>K5/2</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L8">
+        <f>L5*1.5</f>
+        <v>12</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <f>H8*K8*3.14*POWER(N8,2)</f>
+        <v>20.724000000000004</v>
+      </c>
+      <c r="R8">
+        <f>SUM(H8:L8)</f>
+        <v>24.55</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" ht="33" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>204</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9">
+        <f>H5*1.5</f>
+        <v>12</v>
+      </c>
+      <c r="K9">
+        <f>K5</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L9">
+        <f>ROUNDUP(L6/1.5,1)</f>
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="M9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <f>H9*K9*3.14*POWER(N9,2)</f>
+        <v>41.448000000000008</v>
+      </c>
+      <c r="R9">
+        <f>SUM(H9:L9)</f>
+        <v>18.5</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="8">
+        <f>ROUNDUP(H5*1.5,0)</f>
+        <v>12</v>
+      </c>
+      <c r="I10" s="8">
+        <f t="shared" ref="I10:L10" si="2">ROUNDUP(I5*1.5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="8">
+        <f>ROUNDUP(K5*1.5,0)</f>
+        <v>2</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="N10" s="8">
+        <v>1</v>
+      </c>
+      <c r="O10" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P10" s="8">
+        <f>H10*K10*3.14*POWER(N10,2)</f>
+        <v>75.36</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" ht="33" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>301</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11">
+        <f>ROUNDUP(H10*1.5,0)</f>
+        <v>18</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f>ROUNDUP(K10*1.5,1)</f>
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <f>ROUNDUP(L10/1.5,1)</f>
+        <v>8</v>
+      </c>
+      <c r="M11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <f>H11*K11*3.14*POWER(N11,2)</f>
+        <v>169.56</v>
+      </c>
+      <c r="R11">
+        <f>SUM(H11:L11)</f>
+        <v>29</v>
+      </c>
+      <c r="S11" s="2">
+        <f>R11/R9-1</f>
+        <v>0.56756756756756754</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" ht="33" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>302</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12">
+        <f>H10</f>
+        <v>12</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ref="I12:L12" si="3">I10</f>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <f>H12*K12*3.14*POWER(N12,2)</f>
+        <v>75.36</v>
+      </c>
+      <c r="R12">
+        <f>SUM(H12:L12)</f>
+        <v>26</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" ht="33" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>303</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13">
+        <f>ROUNDUP(H10*1.5,0)</f>
+        <v>18</v>
+      </c>
+      <c r="K13">
+        <f>ROUNDUP(K10*1.5,0)</f>
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <f>ROUNDUP(L10*1.5,1)</f>
+        <v>18</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <f>H13*K13*3.14*POWER(N13,2)</f>
+        <v>169.56</v>
+      </c>
+      <c r="R13">
+        <f>SUM(H13:L13)</f>
+        <v>39</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="H14" s="8">
+        <f>H10*1.5</f>
+        <v>18</v>
+      </c>
+      <c r="I14" s="8">
+        <f t="shared" ref="I14:L14" si="4">I10*1.5</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="8">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="L14" s="8">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="N14" s="8">
+        <v>1</v>
+      </c>
+      <c r="O14" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P14" s="8">
+        <f>H14*K14*3.14*POWER(N14,2)</f>
+        <v>169.56</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" ht="33" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>401</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15">
+        <f>H14/1.5</f>
+        <v>12</v>
+      </c>
+      <c r="K15">
+        <f>K14</f>
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <f>L14*1.5</f>
+        <v>27</v>
+      </c>
+      <c r="M15" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15">
+        <f>N14*1.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+      <c r="P15">
+        <f>H15*K15*3.14*POWER(N15,2)</f>
+        <v>254.34</v>
+      </c>
+      <c r="R15">
+        <f>SUM(H15:L15)</f>
+        <v>42</v>
+      </c>
+      <c r="S15" s="2">
+        <f>R15/R11-1</f>
+        <v>0.44827586206896552</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" ht="33" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>402</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16">
+        <f>ROUNDUP(H14*1.5,0)</f>
+        <v>27</v>
+      </c>
+      <c r="K16">
+        <f>ROUNDUP(K14*1.5,0)</f>
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <f>ROUNDUP(L14*1.5,0)</f>
+        <v>27</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <f>H16*K16*3.14</f>
+        <v>423.90000000000003</v>
+      </c>
+      <c r="R16">
+        <f>SUM(H16:L16)</f>
+        <v>59</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="33" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>501</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17">
+        <f>H14*1.5</f>
+        <v>27</v>
+      </c>
+      <c r="K17">
+        <f>K14*1.5</f>
+        <v>4.5</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ref="I17:N17" si="5">L14*1.5</f>
+        <v>27</v>
+      </c>
+      <c r="M17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17">
+        <f>N14*1.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+      <c r="P17">
+        <f>H17*K17*3.14</f>
+        <v>381.51</v>
+      </c>
+      <c r="R17">
+        <f>SUM(H17:L17)</f>
+        <v>58.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5EC573-FBA9-475A-B023-320D05C0AFEE}">
+  <dimension ref="A1:W13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.875" customWidth="1"/>
+    <col min="23" max="23" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="19">
+        <v>5</v>
+      </c>
+      <c r="E2" s="17">
+        <v>3</v>
+      </c>
+      <c r="F2" s="17">
+        <v>30</v>
+      </c>
+      <c r="G2" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="N2" s="15"/>
+      <c r="O2" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="P2" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="Q2" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="R2" s="17">
+        <v>1</v>
+      </c>
+      <c r="S2" s="17">
+        <v>1</v>
+      </c>
+      <c r="T2" s="17">
+        <v>1</v>
+      </c>
+      <c r="U2" s="17">
+        <v>1</v>
+      </c>
+      <c r="V2" s="17">
+        <v>1</v>
+      </c>
+      <c r="W2" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="19">
+        <f>D2*1.5</f>
+        <v>7.5</v>
+      </c>
+      <c r="E3" s="17">
+        <f>E2*1.5</f>
+        <v>4.5</v>
+      </c>
+      <c r="F3" s="17">
+        <f>F2*1.5</f>
+        <v>45</v>
+      </c>
+      <c r="G3" s="17">
+        <f>G2*1.5</f>
+        <v>0.75</v>
+      </c>
+      <c r="H3" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="P3" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="Q3" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="R3" s="17">
+        <v>1</v>
+      </c>
+      <c r="S3" s="17">
+        <v>1</v>
+      </c>
+      <c r="T3" s="17">
+        <v>1</v>
+      </c>
+      <c r="U3" s="17">
+        <v>1</v>
+      </c>
+      <c r="V3" s="17">
+        <v>1</v>
+      </c>
+      <c r="W3" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="19">
+        <f t="shared" ref="D4:G6" si="0">D3*1.5</f>
+        <v>11.25</v>
+      </c>
+      <c r="E4" s="17">
+        <f t="shared" si="0"/>
+        <v>6.75</v>
+      </c>
+      <c r="F4" s="17">
+        <f t="shared" si="0"/>
+        <v>67.5</v>
+      </c>
+      <c r="G4" s="17">
+        <f t="shared" si="0"/>
+        <v>1.125</v>
+      </c>
+      <c r="H4" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="N4" s="15"/>
+      <c r="O4" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="P4" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>1</v>
+      </c>
+      <c r="R4" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="S4" s="17">
+        <v>1</v>
+      </c>
+      <c r="T4" s="17">
+        <v>1</v>
+      </c>
+      <c r="U4" s="17">
+        <v>1</v>
+      </c>
+      <c r="V4" s="17">
+        <v>1</v>
+      </c>
+      <c r="W4" s="17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="19">
+        <f t="shared" si="0"/>
+        <v>16.875</v>
+      </c>
+      <c r="E5" s="17">
+        <f t="shared" si="0"/>
+        <v>10.125</v>
+      </c>
+      <c r="F5" s="17">
+        <f t="shared" si="0"/>
+        <v>101.25</v>
+      </c>
+      <c r="G5" s="17">
+        <f t="shared" si="0"/>
+        <v>1.6875</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="19">
+        <f t="shared" si="0"/>
+        <v>25.3125</v>
+      </c>
+      <c r="E6" s="17">
+        <f t="shared" si="0"/>
+        <v>15.1875</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" si="0"/>
+        <v>151.875</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" si="0"/>
+        <v>2.53125</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B7" s="23"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B8" s="23"/>
+    </row>
+    <row r="9" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="19">
+        <f>VLOOKUP($A$11,$A$2:$H$6,4,0)*VLOOKUP(C11,$O$2:$W$4,2,0)</f>
+        <v>7.5</v>
+      </c>
+      <c r="E11" s="17">
+        <f>VLOOKUP($A$11,$A$2:$H$6,5,0)*VLOOKUP(C11,$O$2:$W$4,3,0)</f>
+        <v>1.5</v>
+      </c>
+      <c r="F11" s="17">
+        <f>VLOOKUP($A$11,$A$2:$H$6,6,0)*VLOOKUP(C11,$O$2:$W$4,4,0)</f>
+        <v>30</v>
+      </c>
+      <c r="G11" s="17">
+        <f>VLOOKUP($A$11,$A$2:$H$6,7,0)*VLOOKUP(C11,$O$2:$W$4,5,0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="17">
+        <f>VLOOKUP($A$11,$A$2:$H$6,8,0)*VLOOKUP(C11,$O$2:$W$4,6,0)</f>
+        <v>0.3</v>
+      </c>
+      <c r="I11" s="17">
+        <v>0</v>
+      </c>
+      <c r="J11" s="17">
+        <v>0</v>
+      </c>
+      <c r="K11" s="17">
+        <f t="shared" ref="K11:K12" si="1">VLOOKUP($A11,$A$2:$K$6,11,0)*VLOOKUP($C11,$O$2:$W$4,9,0)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="19">
+        <f>VLOOKUP($A$11,$A$2:$H$6,4,0)*VLOOKUP(C12,$O$2:$W$4,2,0)</f>
+        <v>2.5</v>
+      </c>
+      <c r="E12" s="17">
+        <f>VLOOKUP($A$11,$A$2:$H$6,5,0)*VLOOKUP(C12,$O$2:$W$4,3,0)</f>
+        <v>4.5</v>
+      </c>
+      <c r="F12" s="17">
+        <f>VLOOKUP($A$11,$A$2:$H$6,6,0)*VLOOKUP(C12,$O$2:$W$4,4,0)</f>
+        <v>30</v>
+      </c>
+      <c r="G12" s="17">
+        <f>VLOOKUP($A$11,$A$2:$H$6,7,0)*VLOOKUP(C12,$O$2:$W$4,5,0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="17">
+        <f>VLOOKUP($A$11,$A$2:$H$6,8,0)*VLOOKUP(C12,$O$2:$W$4,6,0)</f>
+        <v>0.3</v>
+      </c>
+      <c r="I12" s="17">
+        <v>0</v>
+      </c>
+      <c r="J12" s="17">
+        <v>0</v>
+      </c>
+      <c r="K12" s="17">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="19">
+        <f>VLOOKUP($A$11,$A$2:$H$6,4,0)*VLOOKUP(C13,$O$2:$W$4,2,0)</f>
+        <v>2.5</v>
+      </c>
+      <c r="E13" s="17">
+        <f>VLOOKUP($A$11,$A$2:$H$6,5,0)*VLOOKUP(C13,$O$2:$W$4,3,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F13" s="17">
+        <f>VLOOKUP($A$11,$A$2:$H$6,6,0)*VLOOKUP(C13,$O$2:$W$4,4,0)</f>
+        <v>15</v>
+      </c>
+      <c r="G13" s="17">
+        <f>VLOOKUP($A$11,$A$2:$H$6,7,0)*VLOOKUP(C13,$O$2:$W$4,5,0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="17">
+        <f>VLOOKUP($A$11,$A$2:$H$6,8,0)*VLOOKUP(C13,$O$2:$W$4,6,0)</f>
+        <v>0.3</v>
+      </c>
+      <c r="I13" s="17">
+        <v>0</v>
+      </c>
+      <c r="J13" s="17">
+        <v>0</v>
+      </c>
+      <c r="K13" s="17">
+        <f>VLOOKUP($A13,$A$2:$K$6,11,0)*VLOOKUP($C13,$O$2:$W$4,9,0)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N1:N4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB7A5AB-32D5-4AA2-9C0B-B0875F07FAB9}">
+  <dimension ref="A1:Q29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
+      <c r="J4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q4" s="28"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>0.7</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="17">
+        <v>1</v>
+      </c>
+      <c r="G5" s="17">
+        <v>10</v>
+      </c>
+      <c r="H5" s="17">
+        <v>20</v>
+      </c>
+      <c r="J5" s="6">
+        <f>F5/(F5+G5)</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="K5" s="6">
+        <f>1-J5</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="L5">
+        <f>H5-(H5-B5*K5)</f>
+        <v>4.545454545454545</v>
+      </c>
+      <c r="M5" s="7">
+        <f>ROUNDUP(H5/L5,0)</f>
+        <v>5</v>
+      </c>
+      <c r="N5" s="7">
+        <f>M5/D5</f>
+        <v>7.1428571428571432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29">
+        <v>2</v>
+      </c>
+      <c r="B6" s="29">
+        <v>10</v>
+      </c>
+      <c r="C6" s="29">
+        <v>5</v>
+      </c>
+      <c r="D6" s="29">
+        <v>0.7</v>
+      </c>
+      <c r="E6" s="29">
+        <v>1</v>
+      </c>
+      <c r="F6" s="30">
+        <v>1</v>
+      </c>
+      <c r="G6" s="30">
+        <v>10</v>
+      </c>
+      <c r="H6" s="30">
+        <v>20</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6" s="29">
+        <f t="shared" ref="J6:J12" si="0">F6/(F6+G6)</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="K6" s="29">
+        <f t="shared" ref="K6:K12" si="1">1-J6</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="L6" s="29">
+        <f>H6-(H6-B6*K6)</f>
+        <v>9.0909090909090899</v>
+      </c>
+      <c r="M6" s="31">
+        <f>ROUNDUP(H6/L6,0)</f>
         <v>3</v>
       </c>
-      <c r="L8">
+      <c r="N6" s="31">
+        <f>M6/D6</f>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="Q6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <f>C6*2</f>
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>0.7</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="17">
+        <v>1</v>
+      </c>
+      <c r="G7" s="17">
+        <v>10</v>
+      </c>
+      <c r="H7" s="17">
+        <v>20</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" si="1"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="L7">
+        <f>H7-(H7-B7*K7)</f>
+        <v>4.545454545454545</v>
+      </c>
+      <c r="M7" s="7">
+        <f>ROUNDUP(H7/L7,0)</f>
+        <v>5</v>
+      </c>
+      <c r="N7" s="7">
+        <f>M7/D7</f>
+        <v>7.1428571428571432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="29">
         <v>4</v>
       </c>
-      <c r="M8">
+      <c r="B8" s="29">
+        <v>5</v>
+      </c>
+      <c r="C8" s="29">
+        <v>5</v>
+      </c>
+      <c r="D8" s="29">
+        <v>1.4</v>
+      </c>
+      <c r="E8" s="29">
+        <v>1</v>
+      </c>
+      <c r="F8" s="30">
+        <v>1</v>
+      </c>
+      <c r="G8" s="30">
+        <v>10</v>
+      </c>
+      <c r="H8" s="30">
+        <v>20</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8" s="29">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="K8" s="29">
+        <f>1-J8</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="L8" s="29">
+        <f>H8-(H8-B8*K8)</f>
+        <v>4.545454545454545</v>
+      </c>
+      <c r="M8" s="31">
+        <f>ROUNDUP(H8/L8,0)</f>
+        <v>5</v>
+      </c>
+      <c r="N8" s="31">
+        <f>M8/D8</f>
+        <v>3.5714285714285716</v>
+      </c>
+      <c r="Q8" s="33"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>0.7</v>
+      </c>
+      <c r="E9">
+        <f>E8*2</f>
+        <v>2</v>
+      </c>
+      <c r="F9" s="17">
+        <v>1</v>
+      </c>
+      <c r="G9" s="17">
+        <v>10</v>
+      </c>
+      <c r="H9" s="17">
+        <v>20</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" si="1"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="L9">
+        <f>H9-(H9-B9*K9)</f>
+        <v>4.545454545454545</v>
+      </c>
+      <c r="M9" s="7">
+        <f>ROUNDUP(H9/L9,0)</f>
+        <v>5</v>
+      </c>
+      <c r="N9" s="7">
+        <f t="shared" ref="N6:N12" si="2">M9/D9</f>
+        <v>7.1428571428571432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="29">
+        <v>6</v>
+      </c>
+      <c r="B10" s="29">
+        <v>5</v>
+      </c>
+      <c r="C10" s="29">
+        <v>5</v>
+      </c>
+      <c r="D10" s="29">
+        <v>0.7</v>
+      </c>
+      <c r="E10" s="29">
+        <v>1</v>
+      </c>
+      <c r="F10" s="29">
+        <v>2</v>
+      </c>
+      <c r="G10" s="30">
+        <v>10</v>
+      </c>
+      <c r="H10" s="30">
+        <v>20</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10" s="29">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K10" s="29">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L10" s="29">
+        <f>H10-(H10-B10*K10)</f>
+        <v>4.1666666666666679</v>
+      </c>
+      <c r="M10" s="31">
+        <f>ROUNDUP(H10/L10,0)</f>
+        <v>5</v>
+      </c>
+      <c r="N10" s="31">
+        <f t="shared" si="2"/>
+        <v>7.1428571428571432</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>0.7</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="17">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11" s="17">
+        <v>20</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="K11" s="6">
+        <f>1-J11</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="L11">
+        <f>H11-(H11-B11*K11)</f>
+        <v>4.545454545454545</v>
+      </c>
+      <c r="M11" s="7">
+        <f>ROUNDUP(H11/L11,0)</f>
+        <v>5</v>
+      </c>
+      <c r="N11" s="7">
+        <f t="shared" si="2"/>
+        <v>7.1428571428571432</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="29">
+        <v>8</v>
+      </c>
+      <c r="B12" s="29">
+        <v>5</v>
+      </c>
+      <c r="C12" s="29">
+        <v>5</v>
+      </c>
+      <c r="D12" s="29">
+        <v>0.7</v>
+      </c>
+      <c r="E12" s="29">
+        <v>1</v>
+      </c>
+      <c r="F12" s="30">
+        <v>1</v>
+      </c>
+      <c r="G12" s="30">
+        <v>10</v>
+      </c>
+      <c r="H12" s="29">
+        <f>H11*2</f>
+        <v>40</v>
+      </c>
+      <c r="I12"/>
+      <c r="J12" s="29">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="K12" s="29">
+        <f t="shared" si="1"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="L12" s="29">
+        <f>H12-(H12-B12*K12)</f>
+        <v>4.5454545454545467</v>
+      </c>
+      <c r="M12" s="31">
+        <f>ROUNDUP(H12/L12,0)</f>
+        <v>9</v>
+      </c>
+      <c r="N12" s="31">
+        <f t="shared" si="2"/>
+        <v>12.857142857142858</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20">
         <v>3</v>
       </c>
-      <c r="N8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" ht="33" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>301</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="D20">
+        <f>B20</f>
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>50</v>
+      </c>
+      <c r="J20" s="6">
+        <f>D20/(D20+E20)</f>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="K20" s="6">
+        <f>1-J20</f>
+        <v>0.76923076923076916</v>
+      </c>
+      <c r="L20">
+        <f>H20-(H20-B20*K20)</f>
+        <v>2.3076923076923066</v>
+      </c>
+      <c r="M20" s="7">
+        <f>ROUNDUP(H20/L20,0)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:D29" si="3">B21</f>
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>50</v>
+      </c>
+      <c r="J21" s="6">
+        <f>D21/(D21+E21)</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="K21" s="6">
+        <f t="shared" ref="K21:K29" si="4">1-J21</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L21">
+        <f>H21-(H21-B21*K21)</f>
+        <v>2.8571428571428541</v>
+      </c>
+      <c r="M21" s="7">
+        <f>ROUNDUP(H21/L21,0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>50</v>
+      </c>
+      <c r="J22" s="6">
+        <f>D22/(D22+E22)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K22" s="6">
+        <f t="shared" si="4"/>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="L22">
+        <f>H22-(H22-B22*K22)</f>
+        <v>3.3333333333333357</v>
+      </c>
+      <c r="M22" s="7">
+        <f>ROUNDUP(H22/L22,0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>50</v>
+      </c>
+      <c r="J23" s="6">
+        <f>D23/(D23+E23)</f>
+        <v>0.375</v>
+      </c>
+      <c r="K23" s="6">
+        <f t="shared" si="4"/>
+        <v>0.625</v>
+      </c>
+      <c r="L23">
+        <f>H23-(H23-B23*K23)</f>
+        <v>3.75</v>
+      </c>
+      <c r="M23" s="7">
+        <f>ROUNDUP(H23/L23,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <v>50</v>
+      </c>
+      <c r="J24" s="6">
+        <f>D24/(D24+E24)</f>
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="K24" s="6">
+        <f t="shared" si="4"/>
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="L24">
+        <f>H24-(H24-B24*K24)</f>
+        <v>4.117647058823529</v>
+      </c>
+      <c r="M24" s="7">
+        <f>ROUNDUP(H24/L24,0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>50</v>
+      </c>
+      <c r="J25" s="6">
+        <f>D25/(D25+E25)</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="K25" s="6">
+        <f t="shared" si="4"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="L25">
+        <f>H25-(H25-B25*K25)</f>
+        <v>4.4444444444444429</v>
+      </c>
+      <c r="M25" s="7">
+        <f>ROUNDUP(H25/L25,0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>50</v>
+      </c>
+      <c r="J26" s="6">
+        <f>D26/(D26+E26)</f>
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="K26" s="6">
+        <f t="shared" si="4"/>
+        <v>0.52631578947368429</v>
+      </c>
+      <c r="L26">
+        <f>H26-(H26-B26*K26)</f>
+        <v>4.7368421052631575</v>
+      </c>
+      <c r="M26" s="7">
+        <f>ROUNDUP(H26/L26,0)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>50</v>
+      </c>
+      <c r="J27" s="6">
+        <f>D27/(D27+E27)</f>
+        <v>0.5</v>
+      </c>
+      <c r="K27" s="6">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="L27">
+        <f>H27-(H27-B27*K27)</f>
+        <v>5</v>
+      </c>
+      <c r="M27" s="7">
+        <f>ROUNDUP(H27/L27,0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="H28">
+        <v>50</v>
+      </c>
+      <c r="J28" s="6">
+        <f>D28/(D28+E28)</f>
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="K28" s="6">
+        <f t="shared" si="4"/>
+        <v>0.47619047619047616</v>
+      </c>
+      <c r="L28">
+        <f>H28-(H28-B28*K28)</f>
+        <v>5.2380952380952408</v>
+      </c>
+      <c r="M28" s="7">
+        <f>ROUNDUP(H28/L28,0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B29">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9">
+      <c r="D29">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>50</v>
+      </c>
+      <c r="J29" s="6">
+        <f>D29/(D29+E29)</f>
+        <v>0.75</v>
+      </c>
+      <c r="K29" s="6">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="L29">
+        <f>H29-(H29-B29*K29)</f>
+        <v>7.5</v>
+      </c>
+      <c r="M29" s="7">
+        <f>ROUNDUP(H29/L29,0)</f>
         <v>7</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>6</v>
-      </c>
-      <c r="L9">
-        <v>3</v>
-      </c>
-      <c r="M9">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>34</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="Q9" s="2">
-        <f>P9/P8-1</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>302</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10">
-        <v>6</v>
-      </c>
-      <c r="K10">
-        <v>4</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>6</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" ht="33" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <v>303</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11">
-        <v>7</v>
-      </c>
-      <c r="K11">
-        <v>6</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>9</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <v>401</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12">
-        <v>6</v>
-      </c>
-      <c r="K12">
-        <v>7</v>
-      </c>
-      <c r="L12">
-        <v>6</v>
-      </c>
-      <c r="M12">
-        <v>6</v>
-      </c>
-      <c r="N12" t="s">
-        <v>34</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="Q12" s="2">
-        <f>P12/P9-1</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" ht="33" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <v>402</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13">
-        <v>8</v>
-      </c>
-      <c r="K13">
-        <v>8</v>
-      </c>
-      <c r="L13">
-        <v>3</v>
-      </c>
-      <c r="M13">
-        <v>7</v>
-      </c>
-      <c r="N13" t="s">
-        <v>34</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" ht="33" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <v>501</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" t="s">
-        <v>49</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Design/전투 기획서/일반 타워 리스트.xlsx
+++ b/Design/전투 기획서/일반 타워 리스트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\전투 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B15F85-56E2-4E6F-9471-807A2F675F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2378634C-D896-4C1A-AA3F-37937B11558D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{41E7A6B6-CC06-49A1-81A3-52EDE7F04A23}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>일반 타워 리스트</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -406,6 +406,14 @@
   </si>
   <si>
     <t>초</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1당 전투력</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -414,8 +422,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="185" formatCode="0.00_ "/>
-    <numFmt numFmtId="186" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -717,7 +725,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -763,62 +771,59 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1295,7 +1300,7 @@
         <v>8</v>
       </c>
       <c r="I5" s="8">
-        <f t="shared" ref="I5:L5" si="0">ROUNDUP(I4*1.5,0)</f>
+        <f t="shared" ref="I5:J5" si="0">ROUNDUP(I4*1.5,0)</f>
         <v>0</v>
       </c>
       <c r="J5" s="8">
@@ -1355,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="P6">
-        <f>H6*K6*3.14*POWER(N6,2)</f>
+        <f t="shared" ref="P6:P15" si="2">H6*K6*3.14*POWER(N6,2)</f>
         <v>30.143999999999998</v>
       </c>
       <c r="R6">
@@ -1412,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="P7">
-        <f>H7*K7*3.14*POWER(N7,2)</f>
+        <f t="shared" si="2"/>
         <v>32.027999999999999</v>
       </c>
       <c r="R7">
@@ -1460,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="P8">
-        <f>H8*K8*3.14*POWER(N8,2)</f>
+        <f t="shared" si="2"/>
         <v>20.724000000000004</v>
       </c>
       <c r="R8">
@@ -1511,7 +1516,7 @@
         <v>1</v>
       </c>
       <c r="P9">
-        <f>H9*K9*3.14*POWER(N9,2)</f>
+        <f t="shared" si="2"/>
         <v>41.448000000000008</v>
       </c>
       <c r="R9">
@@ -1539,11 +1544,11 @@
         <v>12</v>
       </c>
       <c r="I10" s="8">
-        <f t="shared" ref="I10:L10" si="2">ROUNDUP(I5*1.5,0)</f>
+        <f t="shared" ref="I10:L10" si="3">ROUNDUP(I5*1.5,0)</f>
         <v>0</v>
       </c>
       <c r="J10" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K10" s="8">
@@ -1551,7 +1556,7 @@
         <v>2</v>
       </c>
       <c r="L10" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="N10" s="8">
@@ -1562,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="P10" s="8">
-        <f>H10*K10*3.14*POWER(N10,2)</f>
+        <f t="shared" si="2"/>
         <v>75.36</v>
       </c>
     </row>
@@ -1611,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="P11">
-        <f>H11*K11*3.14*POWER(N11,2)</f>
+        <f t="shared" si="2"/>
         <v>169.56</v>
       </c>
       <c r="R11">
@@ -1647,19 +1652,19 @@
         <v>12</v>
       </c>
       <c r="I12">
-        <f t="shared" ref="I12:L12" si="3">I10</f>
+        <f t="shared" ref="I12:L12" si="4">I10</f>
         <v>0</v>
       </c>
       <c r="J12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="L12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="N12">
@@ -1670,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="P12">
-        <f>H12*K12*3.14*POWER(N12,2)</f>
+        <f t="shared" si="2"/>
         <v>75.36</v>
       </c>
       <c r="R12">
@@ -1714,7 +1719,7 @@
         <v>1</v>
       </c>
       <c r="P13">
-        <f>H13*K13*3.14*POWER(N13,2)</f>
+        <f t="shared" si="2"/>
         <v>169.56</v>
       </c>
       <c r="R13">
@@ -1738,19 +1743,19 @@
         <v>18</v>
       </c>
       <c r="I14" s="8">
-        <f t="shared" ref="I14:L14" si="4">I10*1.5</f>
+        <f t="shared" ref="I14:L14" si="5">I10*1.5</f>
         <v>0</v>
       </c>
       <c r="J14" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K14" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="L14" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="N14" s="8">
@@ -1761,7 +1766,7 @@
         <v>1</v>
       </c>
       <c r="P14" s="8">
-        <f>H14*K14*3.14*POWER(N14,2)</f>
+        <f t="shared" si="2"/>
         <v>169.56</v>
       </c>
     </row>
@@ -1805,7 +1810,7 @@
         <v>2.25</v>
       </c>
       <c r="P15">
-        <f>H15*K15*3.14*POWER(N15,2)</f>
+        <f t="shared" si="2"/>
         <v>254.34</v>
       </c>
       <c r="R15">
@@ -1892,7 +1897,7 @@
         <v>4.5</v>
       </c>
       <c r="L17">
-        <f t="shared" ref="I17:N17" si="5">L14*1.5</f>
+        <f t="shared" ref="L17" si="6">L14*1.5</f>
         <v>27</v>
       </c>
       <c r="M17" t="s">
@@ -1977,7 +1982,7 @@
       <c r="K1" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="32" t="s">
         <v>76</v>
       </c>
       <c r="O1" s="14" t="s">
@@ -2009,275 +2014,275 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="18">
         <v>5</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="16">
         <v>3</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="16">
         <v>30</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="16">
         <v>0.5</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="16">
         <v>0.3</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17">
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16">
         <v>0.7</v>
       </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="17" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="P2" s="17">
+      <c r="P2" s="16">
         <v>1.5</v>
       </c>
-      <c r="Q2" s="17">
+      <c r="Q2" s="16">
         <v>0.5</v>
       </c>
-      <c r="R2" s="17">
-        <v>1</v>
-      </c>
-      <c r="S2" s="17">
-        <v>1</v>
-      </c>
-      <c r="T2" s="17">
-        <v>1</v>
-      </c>
-      <c r="U2" s="17">
-        <v>1</v>
-      </c>
-      <c r="V2" s="17">
-        <v>1</v>
-      </c>
-      <c r="W2" s="17">
+      <c r="R2" s="16">
+        <v>1</v>
+      </c>
+      <c r="S2" s="16">
+        <v>1</v>
+      </c>
+      <c r="T2" s="16">
+        <v>1</v>
+      </c>
+      <c r="U2" s="16">
+        <v>1</v>
+      </c>
+      <c r="V2" s="16">
+        <v>1</v>
+      </c>
+      <c r="W2" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="18">
         <f>D2*1.5</f>
         <v>7.5</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="16">
         <f>E2*1.5</f>
         <v>4.5</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="16">
         <f>F2*1.5</f>
         <v>45</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="16">
         <f>G2*1.5</f>
         <v>0.75</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="16">
         <v>0.3</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17">
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16">
         <v>0.7</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="17" t="s">
+      <c r="N3" s="32"/>
+      <c r="O3" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="P3" s="17">
+      <c r="P3" s="16">
         <v>0.5</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="Q3" s="16">
         <v>1.5</v>
       </c>
-      <c r="R3" s="17">
-        <v>1</v>
-      </c>
-      <c r="S3" s="17">
-        <v>1</v>
-      </c>
-      <c r="T3" s="17">
-        <v>1</v>
-      </c>
-      <c r="U3" s="17">
-        <v>1</v>
-      </c>
-      <c r="V3" s="17">
-        <v>1</v>
-      </c>
-      <c r="W3" s="17">
+      <c r="R3" s="16">
+        <v>1</v>
+      </c>
+      <c r="S3" s="16">
+        <v>1</v>
+      </c>
+      <c r="T3" s="16">
+        <v>1</v>
+      </c>
+      <c r="U3" s="16">
+        <v>1</v>
+      </c>
+      <c r="V3" s="16">
+        <v>1</v>
+      </c>
+      <c r="W3" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <f t="shared" ref="D4:G6" si="0">D3*1.5</f>
         <v>11.25</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <f t="shared" si="0"/>
         <v>67.5</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="16">
         <f t="shared" si="0"/>
         <v>1.125</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="16">
         <v>0.3</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17">
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16">
         <v>0.7</v>
       </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="17" t="s">
+      <c r="N4" s="32"/>
+      <c r="O4" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="P4" s="17">
+      <c r="P4" s="16">
         <v>0.5</v>
       </c>
-      <c r="Q4" s="17">
-        <v>1</v>
-      </c>
-      <c r="R4" s="17">
+      <c r="Q4" s="16">
+        <v>1</v>
+      </c>
+      <c r="R4" s="16">
         <v>0.5</v>
       </c>
-      <c r="S4" s="17">
-        <v>1</v>
-      </c>
-      <c r="T4" s="17">
-        <v>1</v>
-      </c>
-      <c r="U4" s="17">
-        <v>1</v>
-      </c>
-      <c r="V4" s="17">
-        <v>1</v>
-      </c>
-      <c r="W4" s="17">
+      <c r="S4" s="16">
+        <v>1</v>
+      </c>
+      <c r="T4" s="16">
+        <v>1</v>
+      </c>
+      <c r="U4" s="16">
+        <v>1</v>
+      </c>
+      <c r="V4" s="16">
+        <v>1</v>
+      </c>
+      <c r="W4" s="16">
         <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <f t="shared" si="0"/>
         <v>16.875</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <f t="shared" si="0"/>
         <v>10.125</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <f t="shared" si="0"/>
         <v>101.25</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <f t="shared" si="0"/>
         <v>1.6875</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="16">
         <v>0.3</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17">
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <f t="shared" si="0"/>
         <v>25.3125</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <f t="shared" si="0"/>
         <v>15.1875</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <f t="shared" si="0"/>
         <v>151.875</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
         <f t="shared" si="0"/>
         <v>2.53125</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="16">
         <v>0.3</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17">
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B7" s="23"/>
+      <c r="B7" s="22"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B8" s="23"/>
+      <c r="B8" s="22"/>
     </row>
     <row r="9" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>67</v>
       </c>
       <c r="D10" s="14" t="s">
@@ -2315,115 +2320,115 @@
       <c r="C11" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="18">
         <f>VLOOKUP($A$11,$A$2:$H$6,4,0)*VLOOKUP(C11,$O$2:$W$4,2,0)</f>
         <v>7.5</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="16">
         <f>VLOOKUP($A$11,$A$2:$H$6,5,0)*VLOOKUP(C11,$O$2:$W$4,3,0)</f>
         <v>1.5</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="16">
         <f>VLOOKUP($A$11,$A$2:$H$6,6,0)*VLOOKUP(C11,$O$2:$W$4,4,0)</f>
         <v>30</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="16">
         <f>VLOOKUP($A$11,$A$2:$H$6,7,0)*VLOOKUP(C11,$O$2:$W$4,5,0)</f>
         <v>0.5</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="16">
         <f>VLOOKUP($A$11,$A$2:$H$6,8,0)*VLOOKUP(C11,$O$2:$W$4,6,0)</f>
         <v>0.3</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="16">
         <v>0</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="16">
         <v>0</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="16">
         <f t="shared" ref="K11:K12" si="1">VLOOKUP($A11,$A$2:$K$6,11,0)*VLOOKUP($C11,$O$2:$W$4,9,0)</f>
         <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="18">
         <f>VLOOKUP($A$11,$A$2:$H$6,4,0)*VLOOKUP(C12,$O$2:$W$4,2,0)</f>
         <v>2.5</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="16">
         <f>VLOOKUP($A$11,$A$2:$H$6,5,0)*VLOOKUP(C12,$O$2:$W$4,3,0)</f>
         <v>4.5</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="16">
         <f>VLOOKUP($A$11,$A$2:$H$6,6,0)*VLOOKUP(C12,$O$2:$W$4,4,0)</f>
         <v>30</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="16">
         <f>VLOOKUP($A$11,$A$2:$H$6,7,0)*VLOOKUP(C12,$O$2:$W$4,5,0)</f>
         <v>0.5</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="16">
         <f>VLOOKUP($A$11,$A$2:$H$6,8,0)*VLOOKUP(C12,$O$2:$W$4,6,0)</f>
         <v>0.3</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="16">
         <v>0</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="16">
         <v>0</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="16">
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="18">
         <f>VLOOKUP($A$11,$A$2:$H$6,4,0)*VLOOKUP(C13,$O$2:$W$4,2,0)</f>
         <v>2.5</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="16">
         <f>VLOOKUP($A$11,$A$2:$H$6,5,0)*VLOOKUP(C13,$O$2:$W$4,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="16">
         <f>VLOOKUP($A$11,$A$2:$H$6,6,0)*VLOOKUP(C13,$O$2:$W$4,4,0)</f>
         <v>15</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="16">
         <f>VLOOKUP($A$11,$A$2:$H$6,7,0)*VLOOKUP(C13,$O$2:$W$4,5,0)</f>
         <v>0.5</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="16">
         <f>VLOOKUP($A$11,$A$2:$H$6,8,0)*VLOOKUP(C13,$O$2:$W$4,6,0)</f>
         <v>0.3</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="16">
         <v>0</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="16">
         <v>0</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="16">
         <f>VLOOKUP($A13,$A$2:$K$6,11,0)*VLOOKUP($C13,$O$2:$W$4,9,0)</f>
         <v>1.5</v>
       </c>
@@ -2439,10 +2444,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB7A5AB-32D5-4AA2-9C0B-B0875F07FAB9}">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2459,15 +2464,21 @@
     <col min="12" max="12" width="12.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>100</v>
       </c>
@@ -2475,15 +2486,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>87</v>
       </c>
       <c r="N3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
@@ -2496,13 +2510,13 @@
       <c r="E4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="26" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="5" t="s">
@@ -2520,103 +2534,148 @@
       <c r="N4" t="s">
         <v>88</v>
       </c>
-      <c r="Q4" s="28"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="T4" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="U4" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="V4" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="17">
-        <v>1</v>
-      </c>
-      <c r="G5" s="17">
-        <v>10</v>
-      </c>
-      <c r="H5" s="17">
-        <v>20</v>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="16">
+        <v>10000</v>
       </c>
       <c r="J5" s="6">
         <f>F5/(F5+G5)</f>
-        <v>9.0909090909090912E-2</v>
+        <v>0.5</v>
       </c>
       <c r="K5" s="6">
         <f>1-J5</f>
-        <v>0.90909090909090906</v>
+        <v>0.5</v>
       </c>
       <c r="L5">
-        <f>H5-(H5-B5*K5)</f>
-        <v>4.545454545454545</v>
+        <f t="shared" ref="L5:L12" si="0">H5-(H5-B5*K5)</f>
+        <v>0.5</v>
       </c>
       <c r="M5" s="7">
         <f>ROUNDUP(H5/L5,0)</f>
-        <v>5</v>
+        <v>20000</v>
       </c>
       <c r="N5" s="7">
         <f>M5/D5</f>
-        <v>7.1428571428571432</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29">
+        <v>20000</v>
+      </c>
+      <c r="P5">
         <v>2</v>
       </c>
-      <c r="B6" s="29">
-        <v>10</v>
-      </c>
-      <c r="C6" s="29">
-        <v>5</v>
-      </c>
-      <c r="D6" s="29">
-        <v>0.7</v>
-      </c>
-      <c r="E6" s="29">
-        <v>1</v>
-      </c>
-      <c r="F6" s="30">
-        <v>1</v>
-      </c>
-      <c r="G6" s="30">
-        <v>10</v>
-      </c>
-      <c r="H6" s="30">
-        <v>20</v>
+      <c r="Q5" t="s">
+        <v>90</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5" t="s">
+        <v>90</v>
+      </c>
+      <c r="T5">
+        <v>1.5</v>
+      </c>
+      <c r="U5">
+        <v>1.5</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="16">
+        <v>10000</v>
       </c>
       <c r="I6"/>
-      <c r="J6" s="29">
-        <f t="shared" ref="J6:J12" si="0">F6/(F6+G6)</f>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="K6" s="29">
-        <f t="shared" ref="K6:K12" si="1">1-J6</f>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="L6" s="29">
-        <f>H6-(H6-B6*K6)</f>
-        <v>9.0909090909090899</v>
-      </c>
-      <c r="M6" s="31">
-        <f>ROUNDUP(H6/L6,0)</f>
-        <v>3</v>
-      </c>
-      <c r="N6" s="31">
+      <c r="J6" s="27">
+        <f t="shared" ref="J6:J12" si="1">F6/(F6+G6)</f>
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="27">
+        <f t="shared" ref="K6:K12" si="2">1-J6</f>
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="27">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="29">
+        <f t="shared" ref="M5:M12" si="3">ROUNDUP(H6/L6,0)</f>
+        <v>20000</v>
+      </c>
+      <c r="N6" s="29">
         <f>M6/D6</f>
-        <v>4.2857142857142856</v>
-      </c>
-      <c r="Q6" s="32"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+        <v>20000</v>
+      </c>
+      <c r="O6" s="27">
+        <f>N5/N6</f>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="30"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2625,7 +2684,7 @@
       </c>
       <c r="C7">
         <f>C6*2</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>0.7</v>
@@ -2633,85 +2692,85 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" s="17">
-        <v>1</v>
-      </c>
-      <c r="G7" s="17">
+      <c r="F7" s="16">
+        <v>1</v>
+      </c>
+      <c r="G7" s="16">
         <v>10</v>
       </c>
-      <c r="H7" s="17">
-        <v>20</v>
+      <c r="H7" s="16">
+        <v>10000</v>
       </c>
       <c r="J7" s="6">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" si="2"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="K7" s="6">
-        <f t="shared" si="1"/>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="L7">
-        <f>H7-(H7-B7*K7)</f>
-        <v>4.545454545454545</v>
+        <v>4.5454545454540494</v>
       </c>
       <c r="M7" s="7">
-        <f>ROUNDUP(H7/L7,0)</f>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>2201</v>
       </c>
       <c r="N7" s="7">
         <f>M7/D7</f>
-        <v>7.1428571428571432</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29">
+        <v>3144.2857142857147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27">
         <v>4</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="27">
         <v>5</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="27">
         <v>5</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="27">
         <v>1.4</v>
       </c>
-      <c r="E8" s="29">
-        <v>1</v>
-      </c>
-      <c r="F8" s="30">
-        <v>1</v>
-      </c>
-      <c r="G8" s="30">
+      <c r="E8" s="27">
+        <v>1</v>
+      </c>
+      <c r="F8" s="28">
+        <v>1</v>
+      </c>
+      <c r="G8" s="28">
         <v>10</v>
       </c>
-      <c r="H8" s="30">
-        <v>20</v>
+      <c r="H8" s="16">
+        <v>10000</v>
       </c>
       <c r="I8"/>
-      <c r="J8" s="29">
-        <f t="shared" si="0"/>
+      <c r="J8" s="27">
+        <f t="shared" si="1"/>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="27">
         <f>1-J8</f>
         <v>0.90909090909090906</v>
       </c>
-      <c r="L8" s="29">
-        <f>H8-(H8-B8*K8)</f>
-        <v>4.545454545454545</v>
-      </c>
-      <c r="M8" s="31">
-        <f>ROUNDUP(H8/L8,0)</f>
-        <v>5</v>
-      </c>
-      <c r="N8" s="31">
+      <c r="L8" s="27">
+        <f t="shared" si="0"/>
+        <v>4.5454545454540494</v>
+      </c>
+      <c r="M8" s="29">
+        <f t="shared" si="3"/>
+        <v>2201</v>
+      </c>
+      <c r="N8" s="29">
         <f>M8/D8</f>
-        <v>3.5714285714285716</v>
-      </c>
-      <c r="Q8" s="33"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1572.1428571428573</v>
+      </c>
+      <c r="Q8" s="31"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -2728,84 +2787,84 @@
         <f>E8*2</f>
         <v>2</v>
       </c>
-      <c r="F9" s="17">
-        <v>1</v>
-      </c>
-      <c r="G9" s="17">
+      <c r="F9" s="16">
+        <v>1</v>
+      </c>
+      <c r="G9" s="16">
         <v>10</v>
       </c>
-      <c r="H9" s="17">
-        <v>20</v>
+      <c r="H9" s="16">
+        <v>10000</v>
       </c>
       <c r="J9" s="6">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" si="2"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="K9" s="6">
+        <v>4.5454545454540494</v>
+      </c>
+      <c r="M9" s="7">
+        <f t="shared" si="3"/>
+        <v>2201</v>
+      </c>
+      <c r="N9" s="7">
+        <f t="shared" ref="N9:N12" si="4">M9/D9</f>
+        <v>3144.2857142857147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="27">
+        <v>6</v>
+      </c>
+      <c r="B10" s="27">
+        <v>5</v>
+      </c>
+      <c r="C10" s="27">
+        <v>5</v>
+      </c>
+      <c r="D10" s="27">
+        <v>0.7</v>
+      </c>
+      <c r="E10" s="27">
+        <v>1</v>
+      </c>
+      <c r="F10" s="27">
+        <v>2</v>
+      </c>
+      <c r="G10" s="28">
+        <v>10</v>
+      </c>
+      <c r="H10" s="16">
+        <v>10000</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10" s="27">
         <f t="shared" si="1"/>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="L9">
-        <f>H9-(H9-B9*K9)</f>
-        <v>4.545454545454545</v>
-      </c>
-      <c r="M9" s="7">
-        <f>ROUNDUP(H9/L9,0)</f>
-        <v>5</v>
-      </c>
-      <c r="N9" s="7">
-        <f t="shared" ref="N6:N12" si="2">M9/D9</f>
-        <v>7.1428571428571432</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29">
-        <v>6</v>
-      </c>
-      <c r="B10" s="29">
-        <v>5</v>
-      </c>
-      <c r="C10" s="29">
-        <v>5</v>
-      </c>
-      <c r="D10" s="29">
-        <v>0.7</v>
-      </c>
-      <c r="E10" s="29">
-        <v>1</v>
-      </c>
-      <c r="F10" s="29">
-        <v>2</v>
-      </c>
-      <c r="G10" s="30">
-        <v>10</v>
-      </c>
-      <c r="H10" s="30">
-        <v>20</v>
-      </c>
-      <c r="I10"/>
-      <c r="J10" s="29">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K10" s="27">
+        <f t="shared" si="2"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L10" s="27">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K10" s="29">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="L10" s="29">
-        <f>H10-(H10-B10*K10)</f>
-        <v>4.1666666666666679</v>
-      </c>
-      <c r="M10" s="31">
-        <f>ROUNDUP(H10/L10,0)</f>
-        <v>5</v>
-      </c>
-      <c r="N10" s="31">
-        <f t="shared" si="2"/>
-        <v>7.1428571428571432</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+        <v>4.1666666666660603</v>
+      </c>
+      <c r="M10" s="29">
+        <f t="shared" si="3"/>
+        <v>2401</v>
+      </c>
+      <c r="N10" s="29">
+        <f t="shared" si="4"/>
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7</v>
       </c>
@@ -2821,82 +2880,82 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="16">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10</v>
-      </c>
-      <c r="H11" s="17">
         <v>20</v>
       </c>
+      <c r="H11" s="16">
+        <v>10000</v>
+      </c>
       <c r="J11" s="6">
-        <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="K11" s="6">
         <f>1-J11</f>
-        <v>0.90909090909090906</v>
+        <v>0.95238095238095233</v>
       </c>
       <c r="L11">
         <f>H11-(H11-B11*K11)</f>
-        <v>4.545454545454545</v>
+        <v>4.7619047619045887</v>
       </c>
       <c r="M11" s="7">
-        <f>ROUNDUP(H11/L11,0)</f>
+        <f t="shared" si="3"/>
+        <v>2101</v>
+      </c>
+      <c r="N11" s="7">
+        <f t="shared" si="4"/>
+        <v>3001.4285714285716</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27">
+        <v>8</v>
+      </c>
+      <c r="B12" s="27">
         <v>5</v>
       </c>
-      <c r="N11" s="7">
+      <c r="C12" s="27">
+        <v>5</v>
+      </c>
+      <c r="D12" s="27">
+        <v>0.7</v>
+      </c>
+      <c r="E12" s="27">
+        <v>1</v>
+      </c>
+      <c r="F12" s="28">
+        <v>1</v>
+      </c>
+      <c r="G12" s="28">
+        <v>10</v>
+      </c>
+      <c r="H12" s="27">
+        <f>H11*2</f>
+        <v>20000</v>
+      </c>
+      <c r="I12"/>
+      <c r="J12" s="27">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="K12" s="27">
         <f t="shared" si="2"/>
-        <v>7.1428571428571432</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29">
-        <v>8</v>
-      </c>
-      <c r="B12" s="29">
-        <v>5</v>
-      </c>
-      <c r="C12" s="29">
-        <v>5</v>
-      </c>
-      <c r="D12" s="29">
-        <v>0.7</v>
-      </c>
-      <c r="E12" s="29">
-        <v>1</v>
-      </c>
-      <c r="F12" s="30">
-        <v>1</v>
-      </c>
-      <c r="G12" s="30">
-        <v>10</v>
-      </c>
-      <c r="H12" s="29">
-        <f>H11*2</f>
-        <v>40</v>
-      </c>
-      <c r="I12"/>
-      <c r="J12" s="29">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="L12" s="27">
         <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="K12" s="29">
-        <f t="shared" si="1"/>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="L12" s="29">
-        <f>H12-(H12-B12*K12)</f>
-        <v>4.5454545454545467</v>
-      </c>
-      <c r="M12" s="31">
-        <f>ROUNDUP(H12/L12,0)</f>
-        <v>9</v>
-      </c>
-      <c r="N12" s="31">
-        <f t="shared" si="2"/>
-        <v>12.857142857142858</v>
+        <v>4.5454545454558684</v>
+      </c>
+      <c r="M12" s="29">
+        <f t="shared" si="3"/>
+        <v>4400</v>
+      </c>
+      <c r="N12" s="29">
+        <f t="shared" si="4"/>
+        <v>6285.7142857142862</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
@@ -2940,7 +2999,7 @@
         <v>50</v>
       </c>
       <c r="J20" s="6">
-        <f>D20/(D20+E20)</f>
+        <f t="shared" ref="J20:J29" si="5">D20/(D20+E20)</f>
         <v>0.23076923076923078</v>
       </c>
       <c r="K20" s="6">
@@ -2948,11 +3007,11 @@
         <v>0.76923076923076916</v>
       </c>
       <c r="L20">
-        <f>H20-(H20-B20*K20)</f>
+        <f t="shared" ref="L20:L29" si="6">H20-(H20-B20*K20)</f>
         <v>2.3076923076923066</v>
       </c>
       <c r="M20" s="7">
-        <f>ROUNDUP(H20/L20,0)</f>
+        <f t="shared" ref="M20:M29" si="7">ROUNDUP(H20/L20,0)</f>
         <v>22</v>
       </c>
     </row>
@@ -2961,7 +3020,7 @@
         <v>4</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:D29" si="3">B21</f>
+        <f t="shared" ref="D21:D29" si="8">B21</f>
         <v>4</v>
       </c>
       <c r="E21">
@@ -2971,19 +3030,19 @@
         <v>50</v>
       </c>
       <c r="J21" s="6">
-        <f>D21/(D21+E21)</f>
+        <f t="shared" si="5"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" ref="K21:K29" si="4">1-J21</f>
+        <f t="shared" ref="K21:K29" si="9">1-J21</f>
         <v>0.7142857142857143</v>
       </c>
       <c r="L21">
-        <f>H21-(H21-B21*K21)</f>
+        <f t="shared" si="6"/>
         <v>2.8571428571428541</v>
       </c>
       <c r="M21" s="7">
-        <f>ROUNDUP(H21/L21,0)</f>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
     </row>
@@ -2992,7 +3051,7 @@
         <v>5</v>
       </c>
       <c r="D22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="E22">
@@ -3002,19 +3061,19 @@
         <v>50</v>
       </c>
       <c r="J22" s="6">
-        <f>D22/(D22+E22)</f>
+        <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="K22" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.66666666666666674</v>
       </c>
       <c r="L22">
-        <f>H22-(H22-B22*K22)</f>
+        <f t="shared" si="6"/>
         <v>3.3333333333333357</v>
       </c>
       <c r="M22" s="7">
-        <f>ROUNDUP(H22/L22,0)</f>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
     </row>
@@ -3023,7 +3082,7 @@
         <v>6</v>
       </c>
       <c r="D23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="E23">
@@ -3033,19 +3092,19 @@
         <v>50</v>
       </c>
       <c r="J23" s="6">
-        <f>D23/(D23+E23)</f>
+        <f t="shared" si="5"/>
         <v>0.375</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.625</v>
       </c>
       <c r="L23">
-        <f>H23-(H23-B23*K23)</f>
+        <f t="shared" si="6"/>
         <v>3.75</v>
       </c>
       <c r="M23" s="7">
-        <f>ROUNDUP(H23/L23,0)</f>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
     </row>
@@ -3054,7 +3113,7 @@
         <v>7</v>
       </c>
       <c r="D24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="E24">
@@ -3064,19 +3123,19 @@
         <v>50</v>
       </c>
       <c r="J24" s="6">
-        <f>D24/(D24+E24)</f>
+        <f t="shared" si="5"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="K24" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="L24">
-        <f>H24-(H24-B24*K24)</f>
+        <f t="shared" si="6"/>
         <v>4.117647058823529</v>
       </c>
       <c r="M24" s="7">
-        <f>ROUNDUP(H24/L24,0)</f>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
     </row>
@@ -3085,7 +3144,7 @@
         <v>8</v>
       </c>
       <c r="D25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="E25">
@@ -3095,19 +3154,19 @@
         <v>50</v>
       </c>
       <c r="J25" s="6">
-        <f>D25/(D25+E25)</f>
+        <f t="shared" si="5"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.55555555555555558</v>
       </c>
       <c r="L25">
-        <f>H25-(H25-B25*K25)</f>
+        <f t="shared" si="6"/>
         <v>4.4444444444444429</v>
       </c>
       <c r="M25" s="7">
-        <f>ROUNDUP(H25/L25,0)</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
     </row>
@@ -3116,7 +3175,7 @@
         <v>9</v>
       </c>
       <c r="D26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="E26">
@@ -3126,19 +3185,19 @@
         <v>50</v>
       </c>
       <c r="J26" s="6">
-        <f>D26/(D26+E26)</f>
+        <f t="shared" si="5"/>
         <v>0.47368421052631576</v>
       </c>
       <c r="K26" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.52631578947368429</v>
       </c>
       <c r="L26">
-        <f>H26-(H26-B26*K26)</f>
+        <f t="shared" si="6"/>
         <v>4.7368421052631575</v>
       </c>
       <c r="M26" s="7">
-        <f>ROUNDUP(H26/L26,0)</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
     </row>
@@ -3147,7 +3206,7 @@
         <v>10</v>
       </c>
       <c r="D27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="E27">
@@ -3157,19 +3216,19 @@
         <v>50</v>
       </c>
       <c r="J27" s="6">
-        <f>D27/(D27+E27)</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="K27" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="L27">
-        <f>H27-(H27-B27*K27)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="M27" s="7">
-        <f>ROUNDUP(H27/L27,0)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
     </row>
@@ -3178,7 +3237,7 @@
         <v>11</v>
       </c>
       <c r="D28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="E28">
@@ -3188,19 +3247,19 @@
         <v>50</v>
       </c>
       <c r="J28" s="6">
-        <f>D28/(D28+E28)</f>
+        <f t="shared" si="5"/>
         <v>0.52380952380952384</v>
       </c>
       <c r="K28" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.47619047619047616</v>
       </c>
       <c r="L28">
-        <f>H28-(H28-B28*K28)</f>
+        <f t="shared" si="6"/>
         <v>5.2380952380952408</v>
       </c>
       <c r="M28" s="7">
-        <f>ROUNDUP(H28/L28,0)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
     </row>
@@ -3209,7 +3268,7 @@
         <v>30</v>
       </c>
       <c r="D29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="E29">
@@ -3219,19 +3278,19 @@
         <v>50</v>
       </c>
       <c r="J29" s="6">
-        <f>D29/(D29+E29)</f>
+        <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
       <c r="K29" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.25</v>
       </c>
       <c r="L29">
-        <f>H29-(H29-B29*K29)</f>
+        <f t="shared" si="6"/>
         <v>7.5</v>
       </c>
       <c r="M29" s="7">
-        <f>ROUNDUP(H29/L29,0)</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
     </row>

--- a/Design/전투 기획서/일반 타워 리스트.xlsx
+++ b/Design/전투 기획서/일반 타워 리스트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\전투 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2378634C-D896-4C1A-AA3F-37937B11558D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953AD2B3-884B-4D7D-B3AE-F4F2E80BE0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{41E7A6B6-CC06-49A1-81A3-52EDE7F04A23}"/>
   </bookViews>
@@ -2446,8 +2446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB7A5AB-32D5-4AA2-9C0B-B0875F07FAB9}">
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2458,7 +2458,7 @@
     <col min="5" max="6" width="13.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.75" customWidth="1"/>
     <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.875" customWidth="1"/>
     <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.75" bestFit="1" customWidth="1"/>
@@ -2662,7 +2662,7 @@
         <v>0.5</v>
       </c>
       <c r="M6" s="29">
-        <f t="shared" ref="M5:M12" si="3">ROUNDUP(H6/L6,0)</f>
+        <f t="shared" ref="M6:M12" si="3">ROUNDUP(H6/L6,0)</f>
         <v>20000</v>
       </c>
       <c r="N6" s="29">
